--- a/Ведомость амортизации ОС_1 квартал 2023.xlsx
+++ b/Ведомость амортизации ОС_1 квартал 2023.xlsx
@@ -1,14 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pushin_in\Desktop\Новая папка\general_osv_and_amortization_distribution_by_folders\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC07BFCB-B811-42BE-966F-469673D03387}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BE2F343-F8FC-48E9-9926-5F8D98A298A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -555,8 +550,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -606,8 +602,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>